--- a/biology/Zoologie/Contarinia_tritici/Contarinia_tritici.xlsx
+++ b/biology/Zoologie/Contarinia_tritici/Contarinia_tritici.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contarinia tritici (la cécidomyie des fleurs du blé ou cécidomyie jaune du blé) est une espèce d'insectes diptères nématocères de la famille des Cecidomyiidae, d'origine eurasiatique.
 Cet insecte est une cécidomyie inféodée aux plantes de la famille des Poaceae. C'est un ravageur sporadique de certaines céréales cultivées, en particulier le blé, l'orge, l'avoine et le seigle.
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon catalogue of Life[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon catalogue of Life :
 Tipula tritici Kirby, 1798
 Contarinia bayeri Vimmer, 1936
 Contarinia venturii Vimmer, 1936</t>
@@ -546,10 +560,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de Contarinia tritici comprend la quasi-totalité de l'Europe, la Russie, y compris la Sibérie et la région du Caucase, le Japon et la Chine.
-L'espèce a été introduite en Amérique du Nord au début du XIXe siècle[2].
+L'espèce a été introduite en Amérique du Nord au début du XIXe siècle.
 </t>
         </is>
       </c>
